--- a/Documents/TraceabilityLinkMatrix.xlsx
+++ b/Documents/TraceabilityLinkMatrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da2624a2523c3f65/CSU/CS414 - OO (Fall 2020)/Assignments/P2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da2624a2523c3f65/CSU/CS414 - OO (Fall 2020)/Project/cs414-f20-UnspecifiedBehavior/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC38FCB6-8395-47E5-B6AC-E76A25F5E252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{CC38FCB6-8395-47E5-B6AC-E76A25F5E252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75CAA06C-FD73-44B7-96AA-B4F181A6883A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0119C4D-3E58-459B-86A3-449865CE4DB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>Requirement\Component</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Respond to invitation</t>
   </si>
   <si>
-    <t>Game</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -103,6 +100,12 @@
   </si>
   <si>
     <t>GameController</t>
+  </si>
+  <si>
+    <t>Accept or Reject Game</t>
+  </si>
+  <si>
+    <t>ChessMatch</t>
   </si>
 </sst>
 </file>
@@ -491,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E091BF6E-4FA3-4511-8F61-F97D37ECA96E}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +506,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
@@ -517,25 +520,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -547,7 +550,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -565,15 +568,15 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -586,17 +589,17 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -607,21 +610,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -632,212 +635,225 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/TraceabilityLinkMatrix.xlsx
+++ b/Documents/TraceabilityLinkMatrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da2624a2523c3f65/CSU/CS414 - OO (Fall 2020)/Project/cs414-f20-UnspecifiedBehavior/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{CC38FCB6-8395-47E5-B6AC-E76A25F5E252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75CAA06C-FD73-44B7-96AA-B4F181A6883A}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{CC38FCB6-8395-47E5-B6AC-E76A25F5E252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAAA9545-574A-4B41-86C5-721B0293366D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0119C4D-3E58-459B-86A3-449865CE4DB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Requirement\Component</t>
   </si>
@@ -81,31 +81,43 @@
     <t>Respond to invitation</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>UserProfile</t>
-  </si>
-  <si>
-    <t>UserController</t>
-  </si>
-  <si>
-    <t>SystemController</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>GameController</t>
-  </si>
-  <si>
     <t>Accept or Reject Game</t>
   </si>
   <si>
-    <t>ChessMatch</t>
+    <t>ChessBoard</t>
+  </si>
+  <si>
+    <t>ChessPiece</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Rook</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Pawn</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>BACK_END - TODO</t>
+  </si>
+  <si>
+    <t>SQL DB</t>
   </si>
 </sst>
 </file>
@@ -142,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,18 +177,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,71 +518,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E091BF6E-4FA3-4511-8F61-F97D37ECA96E}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -567,19 +627,21 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -588,74 +650,70 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -664,31 +722,51 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -696,22 +774,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -719,18 +795,20 @@
         <v>9</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -739,17 +817,21 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -758,19 +840,21 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -783,11 +867,15 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -796,17 +884,21 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -816,16 +908,18 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -834,16 +928,16 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>20</v>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">

--- a/Documents/TraceabilityLinkMatrix.xlsx
+++ b/Documents/TraceabilityLinkMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da2624a2523c3f65/CSU/CS414 - OO (Fall 2020)/Project/cs414-f20-UnspecifiedBehavior/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aande\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{CC38FCB6-8395-47E5-B6AC-E76A25F5E252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAAA9545-574A-4B41-86C5-721B0293366D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69925A9A-4117-41B2-9651-1E208F94C59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0119C4D-3E58-459B-86A3-449865CE4DB8}"/>
+    <workbookView xWindow="15060" yWindow="390" windowWidth="38700" windowHeight="15435" xr2:uid="{B0119C4D-3E58-459B-86A3-449865CE4DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Requirement\Component</t>
   </si>
@@ -81,9 +80,6 @@
     <t>Respond to invitation</t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -114,10 +110,25 @@
     <t>Portal</t>
   </si>
   <si>
-    <t>BACK_END - TODO</t>
-  </si>
-  <si>
     <t>SQL DB</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Invitations</t>
+  </si>
+  <si>
+    <t>CreateMatch</t>
+  </si>
+  <si>
+    <t>ContinueGame</t>
   </si>
 </sst>
 </file>
@@ -191,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -201,6 +212,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -518,72 +532,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E091BF6E-4FA3-4511-8F61-F97D37ECA96E}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -591,34 +622,41 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -634,14 +672,19 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="5"/>
+      <c r="N3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -657,14 +700,19 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -680,14 +728,19 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -703,17 +756,24 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -724,51 +784,63 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -783,13 +855,18 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -803,14 +880,21 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -824,16 +908,21 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
@@ -847,16 +936,21 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -871,13 +965,18 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -891,16 +990,21 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -915,13 +1019,18 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -936,20 +1045,26 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/TraceabilityLinkMatrix.xlsx
+++ b/Documents/TraceabilityLinkMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aande\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69925A9A-4117-41B2-9651-1E208F94C59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7F450-0543-4E41-9F7A-89804F225C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="390" windowWidth="38700" windowHeight="15435" xr2:uid="{B0119C4D-3E58-459B-86A3-449865CE4DB8}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15435" xr2:uid="{B0119C4D-3E58-459B-86A3-449865CE4DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Requirement\Component</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>ContinueGame</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Client</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,17 +203,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,6 +233,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E091BF6E-4FA3-4511-8F61-F97D37ECA96E}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,510 +589,538 @@
     <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
